--- a/data/test_login.xlsx
+++ b/data/test_login.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="45">
   <si>
     <t xml:space="preserve">Step</t>
   </si>
@@ -83,10 +83,16 @@
     <t xml:space="preserve">#phone</t>
   </si>
   <si>
+    <t xml:space="preserve">phone</t>
+  </si>
+  <si>
     <t xml:space="preserve">输入密码</t>
   </si>
   <si>
     <t xml:space="preserve">#password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
   </si>
   <si>
     <t xml:space="preserve">点击登录</t>
@@ -413,7 +419,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -505,8 +511,8 @@
       <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>18817750834</v>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,7 +520,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -523,10 +529,10 @@
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>123456</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,16 +540,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,16 +557,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>18817750834</v>
@@ -571,10 +577,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -597,7 +603,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -640,7 +646,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -695,8 +701,8 @@
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>18817750835</v>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -713,7 +719,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>123456</v>
@@ -724,16 +730,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -742,19 +748,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,10 +768,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -780,7 +786,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -835,8 +841,8 @@
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <v>18817750834</v>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>17</v>
@@ -853,7 +859,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>12345</v>
@@ -864,16 +870,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -882,19 +888,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,10 +908,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -920,7 +926,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -984,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>17</v>
@@ -993,7 +999,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>123456</v>
@@ -1004,16 +1010,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -1022,19 +1028,19 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1042,10 +1048,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1060,7 +1066,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1115,8 +1121,8 @@
       <c r="E29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="1" t="n">
-        <v>18817750834</v>
+      <c r="F29" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,7 +1130,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>17</v>
@@ -1133,7 +1139,7 @@
         <v>18</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -1142,16 +1148,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F31" s="1"/>
     </row>
@@ -1160,19 +1166,19 @@
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,10 +1186,10 @@
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1198,7 +1204,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1260,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>17</v>
@@ -1269,7 +1275,7 @@
         <v>18</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>123456</v>
@@ -1280,16 +1286,16 @@
         <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F39" s="1"/>
     </row>
@@ -1298,19 +1304,19 @@
         <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,10 +1324,10 @@
         <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
